--- a/src/main/java/com/smsa/backend/assets/cdv invoice detail email.xlsx
+++ b/src/main/java/com/smsa/backend/assets/cdv invoice detail email.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>MAWB</t>
   </si>
@@ -76,6 +76,33 @@
   </si>
   <si>
     <t>khalid</t>
+  </si>
+  <si>
+    <t>2023-07-17</t>
+  </si>
+  <si>
+    <t>RX8099</t>
+  </si>
+  <si>
+    <t>LZ#1685-SA</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>RUH</t>
+  </si>
+  <si>
+    <t>Shigar Fashion Pvt Ltd</t>
+  </si>
+  <si>
+    <t>Tayyba Baig</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2023-07-12</t>
   </si>
 </sst>
 </file>
@@ -362,15 +389,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="17" max="17" customWidth="true" width="17.75" collapsed="false"/>
-    <col min="18" max="18" customWidth="true" width="14.5" collapsed="false"/>
-    <col min="19" max="19" customWidth="true" width="17.25" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="17.75" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="14.5" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="17.25" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -440,6 +467,65 @@
         <v>19</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.41468599999E11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.23456789062E11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>135.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>135.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="S3" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
